--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N2">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O2">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P2">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q2">
-        <v>4639.594037521633</v>
+        <v>14787.57556473742</v>
       </c>
       <c r="R2">
-        <v>4639.594037521633</v>
+        <v>133088.1800826367</v>
       </c>
       <c r="S2">
-        <v>0.3000015563001865</v>
+        <v>0.4895113992368518</v>
       </c>
       <c r="T2">
-        <v>0.3000015563001865</v>
+        <v>0.4895113992368518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N3">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P3">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q3">
-        <v>47.06476133350843</v>
+        <v>118.1243124824822</v>
       </c>
       <c r="R3">
-        <v>47.06476133350843</v>
+        <v>1063.11881234234</v>
       </c>
       <c r="S3">
-        <v>0.003043262305443363</v>
+        <v>0.003910255419088219</v>
       </c>
       <c r="T3">
-        <v>0.003043262305443363</v>
+        <v>0.003910255419088218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N4">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q4">
-        <v>780.7344894145001</v>
+        <v>1940.760219132078</v>
       </c>
       <c r="R4">
-        <v>780.7344894145001</v>
+        <v>17466.8419721887</v>
       </c>
       <c r="S4">
-        <v>0.05048320176019051</v>
+        <v>0.0642447604944788</v>
       </c>
       <c r="T4">
-        <v>0.05048320176019051</v>
+        <v>0.0642447604944788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N5">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O5">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P5">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q5">
-        <v>4776.909849971342</v>
+        <v>6619.175201515336</v>
       </c>
       <c r="R5">
-        <v>4776.909849971342</v>
+        <v>59572.57681363803</v>
       </c>
       <c r="S5">
-        <v>0.3088805567270304</v>
+        <v>0.2191137891740794</v>
       </c>
       <c r="T5">
-        <v>0.3088805567270304</v>
+        <v>0.2191137891740794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N6">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P6">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q6">
-        <v>48.45771422723069</v>
+        <v>52.87449024061701</v>
       </c>
       <c r="R6">
-        <v>48.45771422723069</v>
+        <v>475.870412165553</v>
       </c>
       <c r="S6">
-        <v>0.003133332262553825</v>
+        <v>0.001750298119411794</v>
       </c>
       <c r="T6">
-        <v>0.003133332262553825</v>
+        <v>0.001750298119411794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N7">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q7">
-        <v>803.8415090921802</v>
+        <v>868.7179219019349</v>
       </c>
       <c r="R7">
-        <v>803.8415090921802</v>
+        <v>7818.461297117415</v>
       </c>
       <c r="S7">
-        <v>0.05197732857574829</v>
+        <v>0.02875706863716016</v>
       </c>
       <c r="T7">
-        <v>0.05197732857574829</v>
+        <v>0.02875706863716016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N8">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O8">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P8">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q8">
-        <v>3707.19146406846</v>
+        <v>5110.133096564732</v>
       </c>
       <c r="R8">
-        <v>3707.19146406846</v>
+        <v>45991.19786908259</v>
       </c>
       <c r="S8">
-        <v>0.2397113195096262</v>
+        <v>0.1691601433537876</v>
       </c>
       <c r="T8">
-        <v>0.2397113195096262</v>
+        <v>0.1691601433537876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N9">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P9">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q9">
-        <v>37.60632504976751</v>
+        <v>40.82014364579889</v>
       </c>
       <c r="R9">
-        <v>37.60632504976751</v>
+        <v>367.3812928121901</v>
       </c>
       <c r="S9">
-        <v>0.002431668794817123</v>
+        <v>0.001351264481836588</v>
       </c>
       <c r="T9">
-        <v>0.002431668794817123</v>
+        <v>0.001351264481836588</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N10">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q10">
-        <v>623.8330792422885</v>
+        <v>670.6672763811611</v>
       </c>
       <c r="R10">
-        <v>623.8330792422885</v>
+        <v>6036.00548743045</v>
       </c>
       <c r="S10">
-        <v>0.04033777376440373</v>
+        <v>0.02220102108330563</v>
       </c>
       <c r="T10">
-        <v>0.04033777376440373</v>
+        <v>0.02220102108330563</v>
       </c>
     </row>
   </sheetData>
